--- a/DragAndDrop/Assets/5.Data/Cloud_rush_data-1.0.xlsx
+++ b/DragAndDrop/Assets/5.Data/Cloud_rush_data-1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>time</t>
   </si>
@@ -56,12 +56,16 @@
     <t>5=구르미가 다시 화를 내며 화면 위로 올라가는 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +94,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,12 +125,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -399,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -411,390 +426,528 @@
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>24.35</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25.5</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25.885000000000002</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26.25</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>27.37</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7">
+        <v>0.37</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>28.5</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28.87</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29.52</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>30.37</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31.02</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31.4</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31.88</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>32.25</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>33</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>33.36</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>34</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>34.5</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>34.85</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35.5</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>36.299999999999997</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>37.5</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>37.85</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38.25</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>38.5</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>39.35</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>40.85</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>41.5</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>42.35</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>43.5</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44.05</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>44.5</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>45.2</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45.75</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>46.2</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46.85</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47.5</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48.36</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>

--- a/DragAndDrop/Assets/5.Data/Cloud_rush_data-1.0.xlsx
+++ b/DragAndDrop/Assets/5.Data/Cloud_rush_data-1.0.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.1499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>25.885000000000002</v>
+        <v>25.88</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.38500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.36499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -859,29 +859,29 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>44.5</v>
+        <v>44.8</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>45.2</v>
+        <v>45.55</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
       <c r="C40">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/DragAndDrop/Assets/5.Data/Cloud_rush_data-1.0.xlsx
+++ b/DragAndDrop/Assets/5.Data/Cloud_rush_data-1.0.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,18 +837,18 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>43.5</v>
+        <v>43.75</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
